--- a/data/hotels_by_city/Dallas/Dallas_shard_354.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_354.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,144 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r602258850-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>10223185</t>
+  </si>
+  <si>
+    <t>602258850</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Great and I will back again</t>
+  </si>
+  <si>
+    <t>A brand new hotel in this business area! The location is easy to reach local restaurants without a car! Staff are friendly, the hot breakfast is a WOW! Room is big and very comfortable bed.  It is definitely worth the price.  I will come back again!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r599338640-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>599338640</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Great staff, unusual location</t>
+  </si>
+  <si>
+    <t>The pros first: This is a very new hotel with a friendly staff and a better-than-average complimentary breakfast spread. The rooms are big and comfortable, there's an indoor pool. It's only about a mile from the outstanding Lakewood Brewing Company. The cons: The hotel really is in an unusual spot. On one side is the Interstate, on the other side what appears to be the rear side of several industrial facilities. A long driveway leads to the hotel, as others have mentioned, it can be easy to miss the entrance at night. If you would like to look out your hotel window and see anything other than industrial sprawl, it'll be difficult here. But the place is comfy, the people are friendly, and the rate was cheap!MoreShow less</t>
+  </si>
+  <si>
+    <t>The pros first: This is a very new hotel with a friendly staff and a better-than-average complimentary breakfast spread. The rooms are big and comfortable, there's an indoor pool. It's only about a mile from the outstanding Lakewood Brewing Company. The cons: The hotel really is in an unusual spot. On one side is the Interstate, on the other side what appears to be the rear side of several industrial facilities. A long driveway leads to the hotel, as others have mentioned, it can be easy to miss the entrance at night. If you would like to look out your hotel window and see anything other than industrial sprawl, it'll be difficult here. But the place is comfy, the people are friendly, and the rate was cheap!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r588591473-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588591473</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Clean and new</t>
+  </si>
+  <si>
+    <t>Great hotel. Good service. The only thing it lacks is proximity to services - if you need food etc it will require driving. Great pool and gym. Nice people Ample parking Hotel staff handles issues quickly</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r578534183-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>578534183</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Ultra-modern, but at night hard to find</t>
+  </si>
+  <si>
+    <t>This looks to be one of the newest entries in the HIE field.  The hotel is modern in every respect, and spotless in both the public and private areas.  Check-in was a breeze, and of course the next morning there was the usual HIE breakfast fare.  Alas, this hotel is a bit difficult to find because it is well recessed from Kingsley Road, and the entrance is a poorly marked alleyway that is easy to miss in the dark.  I strongly recommend that management install larger, lit signage to direct guests to their property.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r576985645-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>576985645</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Overnight in Big D</t>
+  </si>
+  <si>
+    <t>I selected the hotel for its location to where I needed to be early in the morning.  The check in process was quick and efficient, and the desk was very friendly.  The room was very nice and clean.  I was on the south side of the hotel, and that faces the highway you can hear it a bit, but really if you are close to the window.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10223185-r564045186-Holiday_Inn_Express_Suites_Dallas_Northeast_Arboretum-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564045186</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden place... </t>
+  </si>
+  <si>
+    <t>We stayed for one night because it was close to friends apartment.. although a little hard to find it is a new hotel and it was wonderful. So clean. Big room. Friendly staff. I would stay again ! Very impressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for one night because it was close to friends apartment.. although a little hard to find it is a new hotel and it was wonderful. So clean. Big room. Friendly staff. I would stay again ! Very impressed. More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +783,366 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65350</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>